--- a/biology/Médecine/Louis_Castel_de_Vielfoy/Louis_Castel_de_Vielfoy.xlsx
+++ b/biology/Médecine/Louis_Castel_de_Vielfoy/Louis_Castel_de_Vielfoy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Castel de Vielfoy, né le 3 mai 1771 à Issendolus, dans le département du Lot et mort le 15 septembre 1852 à Paris[1],[2], est un chirurgien militaire de l'armée napoléonienne, membre de l’Académie de médecine. Il est connu pour ses critiques virulentes sur les théories médicales de son époque.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Castel de Vielfoy, né le 3 mai 1771 à Issendolus, dans le département du Lot et mort le 15 septembre 1852 à Paris est un chirurgien militaire de l'armée napoléonienne, membre de l’Académie de médecine. Il est connu pour ses critiques virulentes sur les théories médicales de son époque.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hormis ses nombreuses critiques des grandes doctrines médicales de l'époque défendus par exemple par le Dr. Broussais, Louis Castel s'est longtemps battu pour l'établissement de Conseils médicaux, appelés Conseils de discipline afin de surveiller les pratiques des médecins.
 Il accompagna les grenadiers du camp de Boulogne à Austerlitz puis la Garde lors de la campagne d’Espagne jusqu’en 1809. Plus tard, vers 1812, alors qu’il chevauchait aux côtés de la Grande Armée lors de la campagne de Russie, il perdit trois doigts de la main gauche à cause du froid. Il fut nommé chevalier de la légion d’honneur le 6 avril 1813.
@@ -544,7 +558,9 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1798 : Certificat d’études de Médecine selon le règlement du 30 fructidor de l’an VI. Il étudia la médecine à Paris, en tant qu’élève de Pinel.
 1803 : Nommé chirurgien de deuxième classe au régiment des Grenadiers à cheval de la Garde des Consuls.
@@ -581,7 +597,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1799 : Analyse critique et impartiale de la Nosogaphie philosophique de Pinel, Paris. Th. Barrois, an VII br. in-8° 68 p.
 1803 : De asthmate. Dissertatio inauguralis, gymnaso medico parisiense exhibita, à Ludovico Castel. Parisiis, anno XI, apud Mequignon, in via Scholce Medicinoe, Th.[Quoi ?] no 210, in-8°.
@@ -640,7 +658,9 @@
           <t>Citation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Castel ne fut pas un des grands maîtres.de l'art de guérir, mais sa physionomie originale par certains côtés méritait d'être étudiée. Il a suivi pendant 13 ans, la Vieille Garde sur toutes les routes de l'Europe, et séjourné avec elle dans ses capitales, Vienne, Berlin, Madrid, Moscou... Il a été mêlé très activement à une des plus retentissantes polémiques scientifiques du commencement du XIXe siècle, et son effort personnel ne fut pas inutile, pour ébranler avant qu'elle fut abattue, la dernière des grandes Doctrines, si chères à nos ancêtres, qui ait été construite de toutes pièces par le dernier des grands systématiques 
